--- a/data/HATSN (TRY).xlsx
+++ b/data/HATSN (TRY).xlsx
@@ -2643,6 +2643,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>-672990615</v>
+      </c>
       <c r="C108">
         <v>-1570391118.5431454</v>
       </c>
@@ -2826,6 +2829,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>87651478</v>
+      </c>
       <c r="C5">
         <v>92682981.23256277</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>24649672.90602681</v>
       </c>
       <c r="F5">
-        <v>273155527.8966754</v>
+        <v>285052067</v>
       </c>
       <c r="G5">
         <v>140775681.39943632</v>
@@ -2858,6 +2864,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>4540569868</v>
+      </c>
       <c r="C6">
         <v>3263712765.9750385</v>
       </c>
@@ -2868,7 +2877,7 @@
         <v>668871041.4834093</v>
       </c>
       <c r="F6">
-        <v>4429555933.481916</v>
+        <v>4622473051</v>
       </c>
       <c r="G6">
         <v>3288679314.169315</v>
@@ -4407,6 +4416,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>-5031503.2325627655</v>
+      </c>
       <c r="C5">
         <v>20516976.374193013</v>
       </c>
@@ -4417,7 +4429,7 @@
         <v>24649672.90602681</v>
       </c>
       <c r="F5">
-        <v>132379846.49723908</v>
+        <v>144276385.60056368</v>
       </c>
       <c r="G5">
         <v>203914.32233643532</v>
@@ -4436,6 +4448,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>1276857102.0249615</v>
+      </c>
       <c r="C6">
         <v>1506693332.2169921</v>
       </c>
@@ -4446,7 +4461,7 @@
         <v>668871041.4834093</v>
       </c>
       <c r="F6">
-        <v>1140876619.3126016</v>
+        <v>1333793736.8306851</v>
       </c>
       <c r="G6">
         <v>1675782740.9489725</v>
@@ -5787,17 +5802,20 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>87651478</v>
+      </c>
       <c r="C5">
-        <v>225062827.72980183</v>
+        <v>236959366.83312643</v>
       </c>
       <c r="D5">
-        <v>204749765.67794526</v>
+        <v>216646304.78126985</v>
       </c>
       <c r="E5">
-        <v>166121702.80563948</v>
+        <v>178018241.90896407</v>
       </c>
       <c r="F5">
-        <v>273155527.8966754</v>
+        <v>285052067</v>
       </c>
       <c r="G5">
         <v>252533209.98748782</v>
@@ -5810,17 +5828,20 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>4540569868</v>
+      </c>
       <c r="C6">
-        <v>4404589385.28764</v>
+        <v>4597506502.805723</v>
       </c>
       <c r="D6">
-        <v>4573678794.01962</v>
+        <v>4766595911.5377035</v>
       </c>
       <c r="E6">
-        <v>4411410011.373228</v>
+        <v>4604327128.891312</v>
       </c>
       <c r="F6">
-        <v>4429555933.481916</v>
+        <v>4622473051</v>
       </c>
       <c r="G6">
         <v>3947085791.383317</v>
